--- a/python/pycharm配置设置.xlsx
+++ b/python/pycharm配置设置.xlsx
@@ -8,31 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\study_note\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237DB8E-2BD4-49E6-8070-B66C8E94623C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDEE8E7-A329-41A8-B936-1F82B10B9012}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="t0" localSheetId="0">'1'!$B$114</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《pycharm笔记》如何在pycharm中显示空格</t>
+  </si>
+  <si>
+    <t>python代码美化工具</t>
+  </si>
+  <si>
+    <t>以下使用均为在pycharm中</t>
+  </si>
+  <si>
+    <t>一、.Pycharm自带重定格式</t>
+  </si>
+  <si>
+    <t>ctrl + alt + L</t>
+  </si>
+  <si>
+    <t>ctrl + alt + shift + L 查看重定格式历史记录</t>
+  </si>
+  <si>
+    <t>二、autopep8</t>
+  </si>
+  <si>
+    <t>最简单的是使用pip install autopep8</t>
+  </si>
+  <si>
+    <t>1.下载autopep8，使用Project Interpreter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +78,33 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,8 +129,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -90,6 +160,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38885</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>159368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A90425-BB89-4674-AEA5-DA63F14E3A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="792480"/>
+          <a:ext cx="8961905" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534213</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>94552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB76AF33-98AA-4EB3-B61E-A69BFE8DF172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6949440"/>
+          <a:ext cx="8733333" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581832</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69D645-DEC2-42F0-8285-347FF7B62A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12801600"/>
+          <a:ext cx="8780952" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572080</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>56457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2E3E72-7054-4C49-9826-6D3A78AF2B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22227540"/>
+          <a:ext cx="10600000" cy="5542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229147</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>121196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B81D35-5086-4138-9496-F634FB8B3D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28445460"/>
+          <a:ext cx="10866667" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20080</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>165531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92691F36-79AB-410D-A995-22E4C51B0A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="35212020"/>
+          <a:ext cx="7000000" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,21 +752,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/python/pycharm配置设置.xlsx
+++ b/python/pycharm配置设置.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\study_note\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDEE8E7-A329-41A8-B936-1F82B10B9012}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1155" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -62,8 +56,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +145,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +168,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A90425-BB89-4674-AEA5-DA63F14E3A90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A90425-BB89-4674-AEA5-DA63F14E3A90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -191,7 +177,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -226,7 +212,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB76AF33-98AA-4EB3-B61E-A69BFE8DF172}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB76AF33-98AA-4EB3-B61E-A69BFE8DF172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -235,7 +221,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -270,7 +256,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69D645-DEC2-42F0-8285-347FF7B62A0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F69D645-DEC2-42F0-8285-347FF7B62A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,7 +265,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -314,7 +300,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2E3E72-7054-4C49-9826-6D3A78AF2B23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2E3E72-7054-4C49-9826-6D3A78AF2B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,7 +309,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -358,7 +344,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B81D35-5086-4138-9496-F634FB8B3D45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B81D35-5086-4138-9496-F634FB8B3D45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,7 +353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -402,7 +388,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92691F36-79AB-410D-A995-22E4C51B0A7C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92691F36-79AB-410D-A995-22E4C51B0A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -411,7 +397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -431,8 +417,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="9715500" cy="6638925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,27 +544,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,24 +578,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,19 +753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,42 +773,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="18">
       <c r="B112" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="16.5">
       <c r="B114" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="16.5">
       <c r="B117" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
@@ -820,25 +822,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
